--- a/medicine/Mort/Terrorisme_en_1986/Terrorisme_en_1986.xlsx
+++ b/medicine/Mort/Terrorisme_en_1986/Terrorisme_en_1986.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,35 +520,204 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-20 mars, France : une bombe explose dans la galerie Point Show des Champs-Élysées à Paris faisant deux morts et vingt-neuf blessés[1].
-27 mars, Australie : un attentat contre le commissariat de Russell Street fait un mort et vingt-deux blessés[2].
-Avril
-2 avril, Grèce : au cours de son approche de l'aéroport d'Athènes, une bombe explose à bord du vol 840 de la TWA, causant la mort de quatre passagers et en blessant neuf autres. Bien que la déflagration se soit produite à plus de 3 000 mètres d'altitude, le pilote parvient à poser l'appareil au sol une dizaine de minutes plus tard[3],[4].
-5 avril, Allemagne : une bombe explose dans la discothèque la Belle à Berlin-Ouest, tuant trois soldats américains et une cliente turque. L'explosion fait deux cent vingt-neuf blessés, dont soixante-dix-neuf citoyens américains[5]. L'enquête démontre l'implication des services secrets libyens dans l'attentat. Un couple d'Allemands, un Palestinien et un diplomate libyen sont reconnus coupables lors de leur procès, en novembre 2001[6].
-16 avril, Syrie : une série d'attentats contre des bus frappe le nord de la Syrie près des villes de Tartous, Homs et Lataquieh. Ces attaques font cent quarante-quatre morts et près de cent cinquante blessés[7],[8]
-Mai
-3 mai, Sri Lanka : une bombe explose dans un avion l'aéroport de Colombo, faisant vingt-deux morts et vingt-trois blessés. L'attentat est revendiqué le lendemain par le groupe séparatiste des Tigres tamouls[réf. souhaitée].
-Juin
-14 juin, Afrique du Sud : l'explosion d'une voiture piégée devant le Magoo's Bar à Durban fait trois morts et soixante-neuf blessés. L'attentat est revendiqué par Umkhonto we Sizwe[réf. souhaitée].
-Juillet
-9 juillet, France : une bombe explose au 4e étage de la Brigade de répression du banditisme à Paris. L'attentat, revendiqué par Action directe, fait un mort[9],[10].
-14 juillet, Espagne : l'explosion d'une bombe d'ETA au passage d'un bus de l'armée tue douze militaires à Madrid[11],[12].
-Août
-Septembre
-4 septembre, Liban : une bombe explose lors du passage de cinq membres du contingent français de la FINUL, faisant trois morts et deux blessés[13][source insuffisante].
-5 septembre, Pakistan : l'attaque d'un avion de la Pan Am à l'aéroport de Karachi fait vingt morts[14][source insuffisante].
-6 septembre, Turquie : un commando de 5 hommes, lié à Abou Nidal, massacre 22 fidèles dans la synagogue Neve Shalom d'Istanbul[15]
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20 mars, France : une bombe explose dans la galerie Point Show des Champs-Élysées à Paris faisant deux morts et vingt-neuf blessés.
+27 mars, Australie : un attentat contre le commissariat de Russell Street fait un mort et vingt-deux blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 avril, Grèce : au cours de son approche de l'aéroport d'Athènes, une bombe explose à bord du vol 840 de la TWA, causant la mort de quatre passagers et en blessant neuf autres. Bien que la déflagration se soit produite à plus de 3 000 mètres d'altitude, le pilote parvient à poser l'appareil au sol une dizaine de minutes plus tard,.
+5 avril, Allemagne : une bombe explose dans la discothèque la Belle à Berlin-Ouest, tuant trois soldats américains et une cliente turque. L'explosion fait deux cent vingt-neuf blessés, dont soixante-dix-neuf citoyens américains. L'enquête démontre l'implication des services secrets libyens dans l'attentat. Un couple d'Allemands, un Palestinien et un diplomate libyen sont reconnus coupables lors de leur procès, en novembre 2001.
+16 avril, Syrie : une série d'attentats contre des bus frappe le nord de la Syrie près des villes de Tartous, Homs et Lataquieh. Ces attaques font cent quarante-quatre morts et près de cent cinquante blessés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 mai, Sri Lanka : une bombe explose dans un avion l'aéroport de Colombo, faisant vingt-deux morts et vingt-trois blessés. L'attentat est revendiqué le lendemain par le groupe séparatiste des Tigres tamouls[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 juin, Afrique du Sud : l'explosion d'une voiture piégée devant le Magoo's Bar à Durban fait trois morts et soixante-neuf blessés. L'attentat est revendiqué par Umkhonto we Sizwe[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9 juillet, France : une bombe explose au 4e étage de la Brigade de répression du banditisme à Paris. L'attentat, revendiqué par Action directe, fait un mort,.
+14 juillet, Espagne : l'explosion d'une bombe d'ETA au passage d'un bus de l'armée tue douze militaires à Madrid,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1986</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4 septembre, Liban : une bombe explose lors du passage de cinq membres du contingent français de la FINUL, faisant trois morts et deux blessés[source insuffisante].
+5 septembre, Pakistan : l'attaque d'un avion de la Pan Am à l'aéroport de Karachi fait vingt morts[source insuffisante].
+6 septembre, Turquie : un commando de 5 hommes, lié à Abou Nidal, massacre 22 fidèles dans la synagogue Neve Shalom d'Istanbul
 8 septembre, France : une bombe explose dans le bureau de la Poste de l'hôtel de ville de Paris, faisant un mort et vingt-et-un blessés[réf. souhaitée].
-14 septembre, France : une bombe est découverte au Pub Renault, avenue des Champs-Élysées à Paris, sous une table du restaurant par un maître d'hôtel, Jean-Claude Blanger. Celui-ci prend le paquet suspect, le descend au sous-sol, puis remonte. Il prévient deux policiers en faction, mais alors qu'ils redescendent, la bombe explose. Les deux policiers, Bernard Gautier et Jean-Louis Breteau, sont tués[16].
+14 septembre, France : une bombe est découverte au Pub Renault, avenue des Champs-Élysées à Paris, sous une table du restaurant par un maître d'hôtel, Jean-Claude Blanger. Celui-ci prend le paquet suspect, le descend au sous-sol, puis remonte. Il prévient deux policiers en faction, mais alors qu'ils redescendent, la bombe explose. Les deux policiers, Bernard Gautier et Jean-Louis Breteau, sont tués.
 15 septembre, Corée du Sud : l'explosion d'une bombe à l'aéroport de Séoul fait cinq morts. La Corée du Nord est mise en cause dans l'organisation de cet attentat[réf. souhaitée].
 15 septembre, France : une bombe explose à la préfecture de Paris, sur l'île de la Cité, faisant un mort et quarante-cinq blessés[réf. souhaitée].
-17 septembre, France : une autre bombe explose rue de Rennes à Paris, devant le magasin Tati, et fait sept morts et cinquante-cinq blessés[17],[18],[19].
-Octobre
-Novembre
-Décembre</t>
+17 septembre, France : une autre bombe explose rue de Rennes à Paris, devant le magasin Tati, et fait sept morts et cinquante-cinq blessés.</t>
         </is>
       </c>
     </row>
